--- a/public/2019-09-24.xlsx
+++ b/public/2019-09-24.xlsx
@@ -15,33 +15,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>出库仓库</t>
-  </si>
-  <si>
-    <t>装运单号</t>
-  </si>
-  <si>
-    <t>送达方</t>
-  </si>
-  <si>
-    <t>出库日期</t>
-  </si>
-  <si>
-    <t>总数量</t>
-  </si>
-  <si>
-    <t>吨位</t>
-  </si>
-  <si>
-    <t>成都库房</t>
-  </si>
-  <si>
-    <t>CDDC(沃尔玛成都配送中心)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>发运日期</t>
+  </si>
+  <si>
+    <t>始发地</t>
+  </si>
+  <si>
+    <t>目的地</t>
+  </si>
+  <si>
+    <t>车牌号码</t>
+  </si>
+  <si>
+    <t>司机姓名</t>
+  </si>
+  <si>
+    <t>司机电话</t>
+  </si>
+  <si>
+    <t>蒙牛订单日期</t>
+  </si>
+  <si>
+    <t>蒙牛装运单号</t>
+  </si>
+  <si>
+    <t>蒙牛订单吨位</t>
+  </si>
+  <si>
+    <t>蒙牛订单数量</t>
+  </si>
+  <si>
+    <t>实发吨位(毛重)</t>
+  </si>
+  <si>
+    <t>实装数量</t>
+  </si>
+  <si>
+    <t>合同结算吨位(净重)</t>
+  </si>
+  <si>
+    <t>毛净重节约吨位</t>
+  </si>
+  <si>
+    <t>毛净重节约费用</t>
+  </si>
+  <si>
+    <t>公司标准运价</t>
+  </si>
+  <si>
+    <t>合同单吨运价</t>
+  </si>
+  <si>
+    <t>单吨运价节约金额</t>
+  </si>
+  <si>
+    <t>单吨运价差额节约金额</t>
+  </si>
+  <si>
+    <t>总运费</t>
+  </si>
+  <si>
+    <t>油卡</t>
+  </si>
+  <si>
+    <t>满运宝支付</t>
+  </si>
+  <si>
+    <t>银行支付</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>承运人</t>
+  </si>
+  <si>
+    <t>运输发票</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>2019-09-24</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>A6666</t>
+  </si>
+  <si>
+    <t>老司机</t>
+  </si>
+  <si>
+    <t>二号打工仔</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
   </si>
 </sst>
 </file>
@@ -380,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +463,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,26 +482,288 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>74963179</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>10</v>
-      </c>
+        <v>10086</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>88888</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+      <c r="W2">
+        <v>100</v>
+      </c>
+      <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>234</v>
+      </c>
+      <c r="C3">
+        <v>234</v>
+      </c>
+      <c r="D3">
+        <v>234</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3">
+        <v>234</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>12313</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>12313</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
